--- a/www/IndicatorsPerCountry/Estonia_NumeracyTotal_TerritorialRef_1991_2012_CCode_233.xlsx
+++ b/www/IndicatorsPerCountry/Estonia_NumeracyTotal_TerritorialRef_1991_2012_CCode_233.xlsx
@@ -99,13 +99,13 @@
     <t>Baten, Joerg (2015). Numeracy (Total). http://hdl.handle.net/10622/GEQKCG, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GEQKCG.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GEQKCG.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GEQKCG.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GEQKCG.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GEQKCG.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GEQKCG.bib</t>
   </si>
 </sst>
 </file>
